--- a/hints/samples/sample-test-case-design-document.xlsx
+++ b/hints/samples/sample-test-case-design-document.xlsx
@@ -1,23 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20337"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\belayneshbiadgilign\Desktop\Software testıng and valıdatıon.png\Software testing 2021\2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\USER\Documents\GitHub\Software_Validation_Project_\hints\samples\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C93D6456-64C6-4CBF-A104-7C621B83DE98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240" xr2:uid="{FDCF7B23-E505-4F52-90E8-02D8419D758B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12240"/>
   </bookViews>
   <sheets>
     <sheet name="Functional test" sheetId="1" r:id="rId1"/>
     <sheet name="Usability test" sheetId="2" r:id="rId2"/>
     <sheet name="Security test" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="179021"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -27,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="60">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -93,12 +92,6 @@
     <t>Success message displayed</t>
   </si>
   <si>
-    <t>User Name: Belaynesh password:SecureYourFuture Address:Myaddress</t>
-  </si>
-  <si>
-    <t>Pass</t>
-  </si>
-  <si>
     <t>What condition should be fulfilled before getting this feature work right</t>
   </si>
   <si>
@@ -111,9 +104,6 @@
     <t>Error message displayed</t>
   </si>
   <si>
-    <t>User Name: Belaynesh password:SecureYourFuture Address:</t>
-  </si>
-  <si>
     <t>'What condition should be fulfilled before getting this feature work right</t>
   </si>
   <si>
@@ -141,9 +131,6 @@
     <t>TC9</t>
   </si>
   <si>
-    <t>3. Forgot Password</t>
-  </si>
-  <si>
     <t>TC10</t>
   </si>
   <si>
@@ -214,12 +201,33 @@
   </si>
   <si>
     <t>Security test</t>
+  </si>
+  <si>
+    <t>Check admins log in without any problem with true credentials</t>
+  </si>
+  <si>
+    <t>Check admins log in without any problem with true username, wrong pass</t>
+  </si>
+  <si>
+    <t>Check admins log in without any problem with true pass, wrong username</t>
+  </si>
+  <si>
+    <t>Check admins log in without any problem with username contains Special chars (!,%)</t>
+  </si>
+  <si>
+    <t>redirect to /loginError1 page.</t>
+  </si>
+  <si>
+    <t>username : john! Pass: daisy</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Iletisim </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
@@ -644,9 +652,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -656,66 +661,33 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="5" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
@@ -730,51 +702,6 @@
     </xf>
     <xf numFmtId="1" fontId="5" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1"/>
@@ -788,12 +715,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
@@ -807,9 +728,6 @@
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -832,27 +750,117 @@
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="7" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="15" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="9" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="16" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="0" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="17" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="19" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="20" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="21" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="18" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="3" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="8" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="6" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="7" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Kötü" xfId="1" builtinId="27"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal_Sheet1_Vanco_CR022a1_TestCase_v0.1" xfId="2" xr:uid="{75000455-32C2-4364-89D6-0E822E5BCD9C}"/>
+    <cellStyle name="Normal_Sheet1_Vanco_CR022a1_TestCase_v0.1" xfId="2"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1163,11 +1171,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1A38D643-DCDE-4B25-83DA-DA82954BA1DA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N13" sqref="N13"/>
+      <selection activeCell="L13" sqref="L13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -1183,386 +1191,386 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" ht="26.25">
-      <c r="A3" s="8" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
     </row>
     <row r="4" spans="1:10">
-      <c r="A4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>35</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="1:10" ht="38.25">
-      <c r="A5" s="13" t="s">
+      <c r="A4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>31</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="46"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="B9" s="35" t="s">
+      <c r="B9" s="53" t="s">
         <v>6</v>
       </c>
-      <c r="C9" s="34" t="s">
+      <c r="C9" s="51" t="s">
         <v>7</v>
       </c>
-      <c r="D9" s="36" t="s">
+      <c r="D9" s="55" t="s">
         <v>8</v>
       </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39" t="s">
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="61" t="s">
         <v>9</v>
       </c>
-      <c r="I9" s="40" t="s">
+      <c r="I9" s="52" t="s">
         <v>10</v>
       </c>
-      <c r="J9" s="40" t="s">
+      <c r="J9" s="52" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="10" spans="1:10">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
+      <c r="A10" s="52"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
     </row>
     <row r="11" spans="1:10">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="46"/>
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="48"/>
     </row>
     <row r="12" spans="1:10">
-      <c r="B12" s="47"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="49"/>
-    </row>
-    <row r="13" spans="1:10" ht="178.5">
-      <c r="A13" s="50" t="s">
+      <c r="B12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" ht="76.5">
+      <c r="A13" s="23" t="s">
         <v>12</v>
       </c>
-      <c r="B13" s="51" t="s">
+      <c r="B13" s="24" t="s">
         <v>13</v>
       </c>
-      <c r="C13" s="52" t="s">
+      <c r="C13" s="25" t="s">
         <v>14</v>
       </c>
-      <c r="D13" s="53" t="s">
+      <c r="D13" s="41" t="s">
         <v>15</v>
       </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56" t="s">
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="I13" s="52" t="s">
+    </row>
+    <row r="14" spans="1:10" ht="76.5">
+      <c r="A14" s="23" t="s">
         <v>17</v>
       </c>
-      <c r="J13" s="57" t="s">
+      <c r="B14" s="29" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:10" ht="178.5">
-      <c r="A14" s="50" t="s">
+      <c r="C14" s="30" t="s">
+        <v>14</v>
+      </c>
+      <c r="D14" s="45" t="s">
         <v>19</v>
       </c>
-      <c r="B14" s="58" t="s">
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="28" t="s">
         <v>20</v>
       </c>
-      <c r="C14" s="59" t="s">
-        <v>14</v>
-      </c>
-      <c r="D14" s="60" t="s">
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="61" t="s">
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="28"/>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="I14" s="52" t="s">
-        <v>17</v>
-      </c>
-      <c r="J14" s="57" t="s">
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="28"/>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="23" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="50" t="s">
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="28"/>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="43" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="57"/>
-    </row>
-    <row r="16" spans="1:10">
-      <c r="A16" s="50" t="s">
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
+    </row>
+    <row r="19" spans="1:10" ht="38.25">
+      <c r="A19" s="23" t="s">
         <v>25</v>
       </c>
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="57"/>
-    </row>
-    <row r="17" spans="1:10">
-      <c r="A17" s="50" t="s">
+      <c r="B19" s="29" t="s">
+        <v>53</v>
+      </c>
+      <c r="C19" s="30"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="28"/>
+    </row>
+    <row r="20" spans="1:10" ht="51">
+      <c r="A20" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="57"/>
-    </row>
-    <row r="18" spans="1:10">
-      <c r="A18" s="69" t="s">
+      <c r="B20" s="29" t="s">
+        <v>54</v>
+      </c>
+      <c r="C20" s="30"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="28"/>
+    </row>
+    <row r="21" spans="1:10" ht="51">
+      <c r="A21" s="23" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="73"/>
-    </row>
-    <row r="19" spans="1:10">
-      <c r="A19" s="50" t="s">
+      <c r="B21" s="29" t="s">
+        <v>55</v>
+      </c>
+      <c r="C21" s="30"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="28"/>
+    </row>
+    <row r="22" spans="1:10" ht="63.75">
+      <c r="A22" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="57"/>
-    </row>
-    <row r="20" spans="1:10">
-      <c r="A20" s="50" t="s">
+      <c r="B22" s="29" t="s">
+        <v>56</v>
+      </c>
+      <c r="C22" s="30"/>
+      <c r="D22" s="45" t="s">
+        <v>57</v>
+      </c>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="31" t="s">
+        <v>58</v>
+      </c>
+      <c r="I22" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J22" s="28"/>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="43" t="s">
+        <v>59</v>
+      </c>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="46"/>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="57"/>
-    </row>
-    <row r="21" spans="1:10">
-      <c r="A21" s="50" t="s">
-        <v>30</v>
-      </c>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="57"/>
-    </row>
-    <row r="22" spans="1:10">
-      <c r="A22" s="50" t="s">
-        <v>31</v>
-      </c>
-      <c r="B22" s="58"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="57"/>
-    </row>
-    <row r="23" spans="1:10">
-      <c r="A23" s="69" t="s">
-        <v>32</v>
-      </c>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="71"/>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24" s="50" t="s">
-        <v>33</v>
-      </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="62"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="50"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="62"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:J4"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H7:J7"/>
@@ -1574,20 +1582,26 @@
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AE4B0D6-DD88-48ED-B787-CA08F07E10F2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1605,358 +1619,352 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" ht="26.25">
-      <c r="A3" s="8" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="1:10" ht="25.5">
-      <c r="A4" s="13" t="s">
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B5" s="69" t="s">
+        <v>45</v>
+      </c>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
+    </row>
+    <row r="7" spans="1:10" ht="15.75" thickBot="1">
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="43" t="s">
+        <v>4</v>
+      </c>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="46"/>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="61" t="s">
+        <v>42</v>
+      </c>
+      <c r="I9" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="52"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="48"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" ht="89.25">
+      <c r="A13" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="B4" s="14" t="s">
+      <c r="B13" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" s="25" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" s="41" t="s">
+        <v>41</v>
+      </c>
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27">
+        <v>5</v>
+      </c>
+      <c r="I13" s="25" t="s">
+        <v>43</v>
+      </c>
+      <c r="J13" s="28" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="28"/>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
-    </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="B5" s="17" t="s">
-        <v>49</v>
-      </c>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
-    </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
-    </row>
-    <row r="7" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="69" t="s">
-        <v>4</v>
-      </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="34" t="s">
-        <v>37</v>
-      </c>
-      <c r="B9" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="34" t="s">
-        <v>43</v>
-      </c>
-      <c r="D9" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39" t="s">
-        <v>46</v>
-      </c>
-      <c r="I9" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="46"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="47"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="49"/>
-    </row>
-    <row r="13" spans="1:10" ht="102">
-      <c r="A13" s="50" t="s">
-        <v>38</v>
-      </c>
-      <c r="B13" s="51" t="s">
-        <v>42</v>
-      </c>
-      <c r="C13" s="52" t="s">
-        <v>44</v>
-      </c>
-      <c r="D13" s="53" t="s">
-        <v>45</v>
-      </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56">
-        <v>5</v>
-      </c>
-      <c r="I13" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="57" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="50" t="s">
-        <v>39</v>
-      </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="57"/>
-    </row>
-    <row r="15" spans="1:10">
-      <c r="A15" s="50" t="s">
-        <v>40</v>
-      </c>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="74"/>
-      <c r="F15" s="74"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="57"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="49"/>
+      <c r="E15" s="49"/>
+      <c r="F15" s="49"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="50"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="57"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="28"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="50"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="57"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="28"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="73"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="50"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="57"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="50"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="57"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="50"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="57"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="50"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="57"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="69"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="71"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="50"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="62"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="50"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="62"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:J4"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H7:J7"/>
@@ -1968,20 +1976,26 @@
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53EF8861-C6C4-4E4D-A240-55F859606D2F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1997,348 +2011,342 @@
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="3"/>
-      <c r="F1" s="3"/>
-      <c r="G1" s="3"/>
-      <c r="H1" s="3"/>
-      <c r="I1" s="4"/>
-      <c r="J1" s="5"/>
+      <c r="B1" s="62"/>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
+      <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="3"/>
+      <c r="J1" s="4"/>
     </row>
     <row r="2" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A2" s="6"/>
-      <c r="B2" s="7"/>
-      <c r="C2" s="7"/>
-      <c r="D2" s="7"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="4"/>
-      <c r="J2" s="5"/>
-    </row>
-    <row r="3" spans="1:10" ht="26.25">
-      <c r="A3" s="8" t="s">
+      <c r="A2" s="5"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="4"/>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="B3" s="9" t="s">
+      <c r="B3" s="64" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="9"/>
-      <c r="D3" s="10"/>
-      <c r="E3" s="11"/>
-      <c r="F3" s="11"/>
-      <c r="G3" s="11"/>
-      <c r="H3" s="12"/>
-      <c r="I3" s="12"/>
-      <c r="J3" s="12"/>
-    </row>
-    <row r="4" spans="1:10" ht="25.5">
-      <c r="A4" s="13" t="s">
-        <v>34</v>
-      </c>
-      <c r="B4" s="14" t="s">
-        <v>56</v>
-      </c>
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="11"/>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="12"/>
-      <c r="I4" s="12"/>
-      <c r="J4" s="12"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="7"/>
+      <c r="F3" s="7"/>
+      <c r="G3" s="7"/>
+      <c r="H3" s="50"/>
+      <c r="I3" s="50"/>
+      <c r="J3" s="50"/>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="66" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="67"/>
+      <c r="D4" s="68"/>
+      <c r="E4" s="7"/>
+      <c r="F4" s="7"/>
+      <c r="G4" s="7"/>
+      <c r="H4" s="50"/>
+      <c r="I4" s="50"/>
+      <c r="J4" s="50"/>
     </row>
     <row r="5" spans="1:10">
-      <c r="A5" s="13" t="s">
+      <c r="A5" s="8" t="s">
         <v>3</v>
       </c>
-      <c r="B5" s="17"/>
-      <c r="C5" s="18"/>
-      <c r="D5" s="19"/>
-      <c r="E5" s="20"/>
-      <c r="F5" s="20"/>
-      <c r="G5" s="20"/>
-      <c r="H5" s="21"/>
-      <c r="I5" s="21"/>
-      <c r="J5" s="21"/>
+      <c r="B5" s="69"/>
+      <c r="C5" s="70"/>
+      <c r="D5" s="71"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="72"/>
+      <c r="I5" s="72"/>
+      <c r="J5" s="72"/>
     </row>
     <row r="6" spans="1:10">
-      <c r="A6" s="22"/>
-      <c r="B6" s="23"/>
-      <c r="C6" s="24"/>
-      <c r="D6" s="25"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="12"/>
-      <c r="I6" s="12"/>
-      <c r="J6" s="12"/>
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="12"/>
+      <c r="D6" s="13"/>
+      <c r="E6" s="14"/>
+      <c r="F6" s="14"/>
+      <c r="G6" s="14"/>
+      <c r="H6" s="50"/>
+      <c r="I6" s="50"/>
+      <c r="J6" s="50"/>
     </row>
     <row r="7" spans="1:10" ht="15.75" thickBot="1">
-      <c r="A7" s="27"/>
-      <c r="B7" s="28"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="31"/>
-      <c r="F7" s="31"/>
-      <c r="G7" s="31"/>
-      <c r="H7" s="12"/>
-      <c r="I7" s="12"/>
-      <c r="J7" s="12"/>
+      <c r="A7" s="15"/>
+      <c r="B7" s="16"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="18"/>
+      <c r="E7" s="19"/>
+      <c r="F7" s="19"/>
+      <c r="G7" s="19"/>
+      <c r="H7" s="50"/>
+      <c r="I7" s="50"/>
+      <c r="J7" s="50"/>
     </row>
     <row r="8" spans="1:10">
-      <c r="A8" s="69" t="s">
+      <c r="A8" s="43" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="70"/>
-      <c r="C8" s="70"/>
-      <c r="D8" s="70"/>
-      <c r="E8" s="70"/>
-      <c r="F8" s="70"/>
-      <c r="G8" s="70"/>
-      <c r="H8" s="70"/>
-      <c r="I8" s="70"/>
-      <c r="J8" s="71"/>
+      <c r="B8" s="44"/>
+      <c r="C8" s="44"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44"/>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="46"/>
     </row>
     <row r="9" spans="1:10">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="51" t="s">
+        <v>46</v>
+      </c>
+      <c r="B9" s="53" t="s">
+        <v>37</v>
+      </c>
+      <c r="C9" s="51" t="s">
+        <v>39</v>
+      </c>
+      <c r="D9" s="55" t="s">
+        <v>8</v>
+      </c>
+      <c r="E9" s="56"/>
+      <c r="F9" s="56"/>
+      <c r="G9" s="57"/>
+      <c r="H9" s="61"/>
+      <c r="I9" s="52" t="s">
+        <v>10</v>
+      </c>
+      <c r="J9" s="52" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="52"/>
+      <c r="B10" s="54"/>
+      <c r="C10" s="52"/>
+      <c r="D10" s="58"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="59"/>
+      <c r="G10" s="60"/>
+      <c r="H10" s="58"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="47"/>
+      <c r="B11" s="47"/>
+      <c r="C11" s="47"/>
+      <c r="D11" s="47"/>
+      <c r="E11" s="47"/>
+      <c r="F11" s="47"/>
+      <c r="G11" s="47"/>
+      <c r="H11" s="47"/>
+      <c r="I11" s="47"/>
+      <c r="J11" s="48"/>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="B12" s="20"/>
+      <c r="I12" s="21"/>
+      <c r="J12" s="22"/>
+    </row>
+    <row r="13" spans="1:10" ht="76.5">
+      <c r="A13" s="23" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" s="24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="25"/>
+      <c r="D13" s="41" t="s">
         <v>50</v>
       </c>
-      <c r="B9" s="35" t="s">
-        <v>41</v>
-      </c>
-      <c r="C9" s="34" t="s">
+      <c r="E13" s="42"/>
+      <c r="F13" s="42"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="25" t="s">
         <v>43</v>
       </c>
-      <c r="D9" s="36" t="s">
-        <v>8</v>
-      </c>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="38"/>
-      <c r="H9" s="39"/>
-      <c r="I9" s="40" t="s">
-        <v>10</v>
-      </c>
-      <c r="J9" s="40" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="40"/>
-      <c r="B10" s="41"/>
-      <c r="C10" s="40"/>
-      <c r="D10" s="42"/>
-      <c r="E10" s="43"/>
-      <c r="F10" s="43"/>
-      <c r="G10" s="44"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-    </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="45"/>
-      <c r="B11" s="45"/>
-      <c r="C11" s="45"/>
-      <c r="D11" s="45"/>
-      <c r="E11" s="45"/>
-      <c r="F11" s="45"/>
-      <c r="G11" s="45"/>
-      <c r="H11" s="45"/>
-      <c r="I11" s="45"/>
-      <c r="J11" s="46"/>
-    </row>
-    <row r="12" spans="1:10">
-      <c r="B12" s="47"/>
-      <c r="I12" s="48"/>
-      <c r="J12" s="49"/>
-    </row>
-    <row r="13" spans="1:10" ht="76.5">
-      <c r="A13" s="50" t="s">
+      <c r="J13" s="28" t="s">
         <v>51</v>
       </c>
-      <c r="B13" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="C13" s="52"/>
-      <c r="D13" s="53" t="s">
-        <v>54</v>
-      </c>
-      <c r="E13" s="54"/>
-      <c r="F13" s="54"/>
-      <c r="G13" s="55"/>
-      <c r="H13" s="56"/>
-      <c r="I13" s="52" t="s">
-        <v>47</v>
-      </c>
-      <c r="J13" s="57" t="s">
-        <v>55</v>
-      </c>
     </row>
     <row r="14" spans="1:10">
-      <c r="A14" s="50" t="s">
-        <v>52</v>
-      </c>
-      <c r="B14" s="58"/>
-      <c r="C14" s="59"/>
-      <c r="D14" s="60"/>
-      <c r="E14" s="54"/>
-      <c r="F14" s="54"/>
-      <c r="G14" s="55"/>
-      <c r="H14" s="61"/>
-      <c r="I14" s="52"/>
-      <c r="J14" s="57"/>
+      <c r="A14" s="23" t="s">
+        <v>48</v>
+      </c>
+      <c r="B14" s="29"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="45"/>
+      <c r="E14" s="42"/>
+      <c r="F14" s="42"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="31"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="50"/>
-      <c r="B15" s="58"/>
-      <c r="C15" s="59"/>
-      <c r="D15" s="32"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="33"/>
-      <c r="G15" s="55"/>
-      <c r="H15" s="56"/>
-      <c r="I15" s="52"/>
-      <c r="J15" s="57"/>
+      <c r="A15" s="23"/>
+      <c r="B15" s="29"/>
+      <c r="C15" s="30"/>
+      <c r="D15" s="73"/>
+      <c r="E15" s="74"/>
+      <c r="F15" s="74"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="50"/>
-      <c r="B16" s="58"/>
-      <c r="C16" s="59"/>
-      <c r="D16" s="53"/>
-      <c r="E16" s="54"/>
-      <c r="F16" s="54"/>
-      <c r="G16" s="55"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="52"/>
-      <c r="J16" s="57"/>
+      <c r="A16" s="23"/>
+      <c r="B16" s="29"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="41"/>
+      <c r="E16" s="42"/>
+      <c r="F16" s="42"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="28"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="50"/>
-      <c r="B17" s="58"/>
-      <c r="C17" s="59"/>
-      <c r="D17" s="60"/>
-      <c r="E17" s="54"/>
-      <c r="F17" s="54"/>
-      <c r="G17" s="55"/>
-      <c r="H17" s="61"/>
-      <c r="I17" s="52"/>
-      <c r="J17" s="57"/>
+      <c r="A17" s="23"/>
+      <c r="B17" s="29"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="45"/>
+      <c r="E17" s="42"/>
+      <c r="F17" s="42"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="31"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="28"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="69"/>
-      <c r="B18" s="70"/>
-      <c r="C18" s="70"/>
-      <c r="D18" s="72"/>
-      <c r="E18" s="72"/>
-      <c r="F18" s="72"/>
-      <c r="G18" s="72"/>
-      <c r="H18" s="72"/>
-      <c r="I18" s="72"/>
-      <c r="J18" s="73"/>
+      <c r="A18" s="43"/>
+      <c r="B18" s="44"/>
+      <c r="C18" s="44"/>
+      <c r="D18" s="39"/>
+      <c r="E18" s="39"/>
+      <c r="F18" s="39"/>
+      <c r="G18" s="39"/>
+      <c r="H18" s="39"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="50"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="60"/>
-      <c r="E19" s="54"/>
-      <c r="F19" s="54"/>
-      <c r="G19" s="55"/>
-      <c r="H19" s="61"/>
-      <c r="I19" s="52"/>
-      <c r="J19" s="57"/>
+      <c r="A19" s="23"/>
+      <c r="B19" s="29"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="42"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="31"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="50"/>
-      <c r="B20" s="58"/>
-      <c r="C20" s="59"/>
-      <c r="D20" s="60"/>
-      <c r="E20" s="54"/>
-      <c r="F20" s="54"/>
-      <c r="G20" s="55"/>
-      <c r="H20" s="56"/>
-      <c r="I20" s="52"/>
-      <c r="J20" s="57"/>
+      <c r="A20" s="23"/>
+      <c r="B20" s="29"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="45"/>
+      <c r="E20" s="42"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="27"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="50"/>
-      <c r="B21" s="58"/>
-      <c r="C21" s="59"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="54"/>
-      <c r="F21" s="54"/>
-      <c r="G21" s="55"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="52"/>
-      <c r="J21" s="57"/>
+      <c r="A21" s="23"/>
+      <c r="B21" s="29"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="45"/>
+      <c r="E21" s="42"/>
+      <c r="F21" s="42"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="50"/>
-      <c r="B22" s="58"/>
-      <c r="C22" s="59"/>
-      <c r="D22" s="60"/>
-      <c r="E22" s="54"/>
-      <c r="F22" s="54"/>
-      <c r="G22" s="55"/>
-      <c r="H22" s="61"/>
-      <c r="I22" s="52"/>
-      <c r="J22" s="57"/>
+      <c r="A22" s="23"/>
+      <c r="B22" s="29"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="45"/>
+      <c r="E22" s="42"/>
+      <c r="F22" s="42"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="31"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="69"/>
-      <c r="B23" s="70"/>
-      <c r="C23" s="70"/>
-      <c r="D23" s="70"/>
-      <c r="E23" s="70"/>
-      <c r="F23" s="70"/>
-      <c r="G23" s="70"/>
-      <c r="H23" s="70"/>
-      <c r="I23" s="70"/>
-      <c r="J23" s="71"/>
+      <c r="A23" s="43"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44"/>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="46"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="50"/>
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="53"/>
-      <c r="E24" s="54"/>
-      <c r="F24" s="54"/>
-      <c r="G24" s="65"/>
-      <c r="H24" s="65"/>
-      <c r="I24" s="66"/>
-      <c r="J24" s="62"/>
+      <c r="A24" s="23"/>
+      <c r="B24" s="33"/>
+      <c r="C24" s="34"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="42"/>
+      <c r="F24" s="42"/>
+      <c r="G24" s="35"/>
+      <c r="H24" s="35"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="50"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="53"/>
-      <c r="E25" s="54"/>
-      <c r="F25" s="54"/>
-      <c r="G25" s="68"/>
-      <c r="H25" s="67"/>
-      <c r="I25" s="66"/>
-      <c r="J25" s="62"/>
+      <c r="A25" s="23"/>
+      <c r="B25" s="33"/>
+      <c r="C25" s="34"/>
+      <c r="D25" s="41"/>
+      <c r="E25" s="42"/>
+      <c r="F25" s="42"/>
+      <c r="G25" s="38"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="36"/>
+      <c r="J25" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="31">
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="A18:C18"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="A23:J23"/>
-    <mergeCell ref="A11:J11"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="B1:D2"/>
+    <mergeCell ref="B3:D3"/>
+    <mergeCell ref="H3:J3"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="H4:J4"/>
     <mergeCell ref="D17:F17"/>
     <mergeCell ref="H6:J6"/>
     <mergeCell ref="H7:J7"/>
@@ -2350,13 +2358,19 @@
     <mergeCell ref="H9:H10"/>
     <mergeCell ref="I9:I10"/>
     <mergeCell ref="J9:J10"/>
-    <mergeCell ref="B1:D2"/>
-    <mergeCell ref="B3:D3"/>
-    <mergeCell ref="H3:J3"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="H4:J4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="H5:J5"/>
+    <mergeCell ref="A11:J11"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="A18:C18"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="A23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
